--- a/setter.xlsx
+++ b/setter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chama\Documents\Angular\urms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2598BE4C-A5F3-4DA1-950D-4223B148D164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76013EDB-6EC2-44C0-9F82-0DC5BA68FAB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1DC1846A-3C2C-4BE5-B839-D883E7F7DCB3}"/>
   </bookViews>
@@ -57,163 +57,163 @@
     <t>Q6</t>
   </si>
   <si>
+    <t>D/BSE/19/0004</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0007</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0010</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0013</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0016</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0019</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0022</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0025</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0028</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0031</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0034</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0037</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0040</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0043</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0046</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0049</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0052</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0055</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0058</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0061</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0064</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0067</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0070</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0073</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0076</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0079</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0082</t>
+  </si>
+  <si>
+    <t>D/BSE/19/0085</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0002</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0003</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0004</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0005</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0006</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0007</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0008</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0009</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0010</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0011</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0012</t>
+  </si>
+  <si>
+    <t>D/BCE/19/0013</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0002</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0003</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0004</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0005</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0006</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0007</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0008</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0009</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0010</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0011</t>
+  </si>
+  <si>
+    <t>D/BCS/19/0012</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
     <t>D/BSE/19/0001</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0004</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0007</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0010</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0013</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0016</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0019</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0022</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0025</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0028</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0031</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0034</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0037</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0040</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0043</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0046</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0049</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0052</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0055</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0058</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0061</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0064</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0067</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0070</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0073</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0076</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0079</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0082</t>
-  </si>
-  <si>
-    <t>D/BSE/19/0085</t>
-  </si>
-  <si>
-    <t>D/BCE/19/0002</t>
-  </si>
-  <si>
-    <t>D/BCE/19/0003</t>
-  </si>
-  <si>
-    <t>D/BCE/19/0004</t>
-  </si>
-  <si>
-    <t>D/BCE/19/0005</t>
-  </si>
-  <si>
-    <t>D/BCE/19/0006</t>
-  </si>
-  <si>
-    <t>D/BCE/19/0007</t>
-  </si>
-  <si>
-    <t>D/BCE/19/0008</t>
-  </si>
-  <si>
-    <t>D/BCE/19/0009</t>
-  </si>
-  <si>
-    <t>D/BCE/19/0010</t>
-  </si>
-  <si>
-    <t>D/BCE/19/0011</t>
-  </si>
-  <si>
-    <t>D/BCE/19/0012</t>
-  </si>
-  <si>
-    <t>D/BCE/19/0013</t>
-  </si>
-  <si>
-    <t>D/BCS/19/0002</t>
-  </si>
-  <si>
-    <t>D/BCS/19/0003</t>
-  </si>
-  <si>
-    <t>D/BCS/19/0004</t>
-  </si>
-  <si>
-    <t>D/BCS/19/0005</t>
-  </si>
-  <si>
-    <t>D/BCS/19/0006</t>
-  </si>
-  <si>
-    <t>D/BCS/19/0007</t>
-  </si>
-  <si>
-    <t>D/BCS/19/0008</t>
-  </si>
-  <si>
-    <t>D/BCS/19/0009</t>
-  </si>
-  <si>
-    <t>D/BCS/19/0010</t>
-  </si>
-  <si>
-    <t>D/BCS/19/0011</t>
-  </si>
-  <si>
-    <t>D/BCS/19/0012</t>
-  </si>
-  <si>
-    <t>total</t>
   </si>
 </sst>
 </file>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3717FAFA-7F7D-4990-8457-9C861C0B2271}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,12 +605,12 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>14</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>14</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>13</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>13</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>12</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>14</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>12</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>11</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>9</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>14</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>11</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>13</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>12</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>14</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>13</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>10</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>12</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>14</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>12</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>11</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>9</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>5</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <v>14</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>11</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>13</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>12</v>
